--- a/medicine/Enfance/Gérard_Carré/Gérard_Carré.xlsx
+++ b/medicine/Enfance/Gérard_Carré/Gérard_Carré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Carr%C3%A9</t>
+          <t>Gérard_Carré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Carré, né le 18 janvier 1952 à Paris, est un écrivain et un scénariste français, auteur de roman policier, de littérature pour la jeunesse et de nombreux scénarios pour la télévision.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Carr%C3%A9</t>
+          <t>Gérard_Carré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est instituteur spécialisé dans l'aide à l'enfance inadaptée puis se consacre à l'écriture.
-En 1982, il publie Qui vous parle de mourir ? coécrit avec Didier Cohen, « un roman dur et violent qui ne fait pas dans la dentelle »[1] selon Claude Mesplède et Jean-Jacques Schleret. Il en écrit l'adaptation en 1985 pour le film réalisé par Gilles Béhat, Urgence. 
+En 1982, il publie Qui vous parle de mourir ? coécrit avec Didier Cohen, « un roman dur et violent qui ne fait pas dans la dentelle » selon Claude Mesplède et Jean-Jacques Schleret. Il en écrit l'adaptation en 1985 pour le film réalisé par Gilles Béhat, Urgence. 
 Il est le père de l'illustrateur Benjamin Carré, né en 1973. 
 Hormis deux livres pour la jeunesse, il se consacre depuis 1986 à l'écriture de scénarios et de dialogues pour des téléfilms et des séries télévisées.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Carr%C3%A9</t>
+          <t>Gérard_Carré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Qui vous parle de mourir ?, Éditions Gallimard, coll. « Série noire » no 1885 (1982)  (ISBN 2-07-048885-3) (coécrit avec Didier Cohen)
-Tarmac blues, Éditions Jigal (2021)
-Littérature d'enfance et de jeunesse
-La Troisième Guerre mondiale n'aura pas lieu, Éditions Gallimard, coll. « Folio junior » no 357 (1986)  (ISBN 2-07-033357-4)
-Sèvres-Babylone, Syros, coll. « Souris noire » no 42 (1990)  (ISBN 2-86738-490-7), réédition Syros, coll. « Mini souris noire » no 13 (1997)  (ISBN 2-84146-444-X), réédition  Éditions À vue d’œil, coll. « Mini plume » (2000)  (ISBN 2-912632-71-4)
-Nouvelle
-Le Vent de Mélissa, dans la revue Sapriphage no 3 (avril 1989)</t>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Qui vous parle de mourir ?, Éditions Gallimard, coll. « Série noire » no 1885 (1982)  (ISBN 2-07-048885-3) (coécrit avec Didier Cohen)
+Tarmac blues, Éditions Jigal (2021)</t>
         </is>
       </c>
     </row>
@@ -564,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Carr%C3%A9</t>
+          <t>Gérard_Carré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,15 +593,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre littéraire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Troisième Guerre mondiale n'aura pas lieu, Éditions Gallimard, coll. « Folio junior » no 357 (1986)  (ISBN 2-07-033357-4)
+Sèvres-Babylone, Syros, coll. « Souris noire » no 42 (1990)  (ISBN 2-86738-490-7), réédition Syros, coll. « Mini souris noire » no 13 (1997)  (ISBN 2-84146-444-X), réédition  Éditions À vue d’œil, coll. « Mini plume » (2000)  (ISBN 2-912632-71-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gérard_Carré</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre littéraire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Vent de Mélissa, dans la revue Sapriphage no 3 (avril 1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gérard_Carré</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptation au cinéma
-1985 : Urgence, film français réalisé par Gilles Béhat, adaptation de Qui vous parle de mourir ?
-Scénarios et dialogues pour la télévision
-1986 : 6 épisodes de la série télévisée française Le Petit Docteur, adaptation de nouvelles de Georges Simenon publiées dans Le Petit Docteur
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adaptation au cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1985 : Urgence, film français réalisé par Gilles Béhat, adaptation de Qui vous parle de mourir ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gérard_Carré</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scénarios et dialogues pour la télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1986 : 6 épisodes de la série télévisée française Le Petit Docteur, adaptation de nouvelles de Georges Simenon publiées dans Le Petit Docteur
 1991 : L'Amant de ma sœur, téléfilm français réalisé par Pierre Mondy
 1991 : Bonjour la galère, mini-série télévisée française
 1992 - 1993 : 2 épisodes de la série télévisée française Commissaire Moulin
@@ -610,68 +736,106 @@
 2011 : L'Ombre d'un flic, téléfilm français réalisé par David Delrieux
 2012 : 6 épisodes de la série télévisée française Les Hommes de l'ombre
 2014 - 2015 : 5 épisodes de la série télévisée française Caïn
-2017 : Glacé, série télévisée française réalisée par Laurent Herbiet
-Scénario pour le cinéma
-1987 : Promis…juré !, film français réalisé par Jacques Monnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>G%C3%A9rard_Carr%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+2017 : Glacé, série télévisée française réalisée par Laurent Herbiet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gérard_Carré</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénario pour le cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1987 : Promis…juré !, film français réalisé par Jacques Monnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gérard_Carré</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2002 : Meilleur scénario, partagé avec Marie Montarnal, pour À cran au Festival de la fiction TV de Saint-Tropez[2]
-2004 : Meilleur scénario, partagé avec Marie Montarnal, Alain Tasma et Gilles Taurand, pour À cran, deux ans après au Festival de la fiction TV de Saint-Tropez[3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>G%C3%A9rard_Carr%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2002 : Meilleur scénario, partagé avec Marie Montarnal, pour À cran au Festival de la fiction TV de Saint-Tropez
+2004 : Meilleur scénario, partagé avec Marie Montarnal, Alain Tasma et Gilles Taurand, pour À cran, deux ans après au Festival de la fiction TV de Saint-Tropez</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gérard_Carré</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Carr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède et Jean-Jacques Schleret, Les Auteurs de la Série noire p. 80, Joseph K. (1996)  (ISBN 9-782-91068611-6)
